--- a/app/database/312000AX/Mechanical_Fee_Proposal for Level 1, Pacific Building, 180 Campbell Parade, Bondi Beach Back Up.xlsx
+++ b/app/database/312000AX/Mechanical_Fee_Proposal for Level 1, Pacific Building, 180 Campbell Parade, Bondi Beach Back Up.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\database\312000AX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\00-Bridge Database\312000AX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8543E698-0F27-4021-A9DB-DA95488DB9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D43D4-0C65-46B9-88E7-6873313C7031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="3705" windowWidth="27075" windowHeight="11775" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="210">
   <si>
     <t>Premium Consulting Engineers</t>
   </si>
@@ -514,18 +514,6 @@
     <t>Map out existing mechanical components</t>
   </si>
   <si>
-    <t>Commercial kitchen exhaust and makeup air system design;</t>
-  </si>
-  <si>
-    <t>Charcoal exhaust design with spark arrestor</t>
-  </si>
-  <si>
-    <t>Performance based horizontal kitchen exhaust discharge</t>
-  </si>
-  <si>
-    <t>Table top BBQ/Hot pot exhaust system</t>
-  </si>
-  <si>
     <t>Air conditioning design to the tenancy area as required;</t>
   </si>
   <si>
@@ -538,12 +526,6 @@
     <t>Other ventilation as required to AS 1668.2</t>
   </si>
   <si>
-    <t>Coordination with stakeholder and other services</t>
-  </si>
-  <si>
-    <t>D&amp;BP Act class 2 building design declaration</t>
-  </si>
-  <si>
     <t>1 off site visit</t>
   </si>
   <si>
@@ -577,9 +559,6 @@
     <t>Sanitary waste and drainage services</t>
   </si>
   <si>
-    <t>Trade waste service</t>
-  </si>
-  <si>
     <t>Hot and cold water supply and distribution services</t>
   </si>
   <si>
@@ -640,6 +619,9 @@
     <t>Liaise with relevant authorities and consultants</t>
   </si>
   <si>
+    <t>Section 74B certificate based on base building fire safety measures</t>
+  </si>
+  <si>
     <t>Fire Service-Clarifications</t>
   </si>
   <si>
@@ -647,9 +629,6 @@
   </si>
   <si>
     <t>Any applicable fire engineering report by C10 Fire Engineer</t>
-  </si>
-  <si>
-    <t>Section 74B certificate based on base building fire safety measures</t>
   </si>
   <si>
     <t>Fire Service-Deliverables</t>
@@ -1561,7 +1540,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="54">
-        <v>45308</v>
+        <v>45282</v>
       </c>
       <c r="I2" s="54"/>
       <c r="K2" s="47"/>
@@ -1579,7 +1558,7 @@
         <v>109</v>
       </c>
       <c r="H3" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="12"/>
       <c r="L3" s="14"/>
@@ -2308,11 +2287,9 @@
       <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" t="s">
-        <v>160</v>
+      <c r="A59" s="1" t="str">
+        <f t="shared" ref="A55:A66" si="0">IF(B59&lt;&gt;"","•","")</f>
+        <v/>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="16"/>
@@ -2322,11 +2299,11 @@
       <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>161</v>
+      <c r="A60" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="16"/>
@@ -2340,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="16"/>
@@ -2354,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C62" s="26"/>
       <c r="D62" s="16"/>
@@ -2368,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="16"/>
@@ -2378,11 +2355,9 @@
       <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>165</v>
+      <c r="A64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="16"/>
@@ -2392,9 +2367,11 @@
       <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="str">
-        <f t="shared" ref="A55:A66" si="0">IF(B65&lt;&gt;"","•","")</f>
-        <v/>
+      <c r="A65" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="16"/>
@@ -2404,11 +2381,11 @@
       <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>166</v>
+      <c r="A66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>165</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="16"/>
@@ -2422,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C67" s="3"/>
       <c r="E67" s="8"/>
@@ -2436,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
@@ -2447,11 +2424,9 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
-        <v>169</v>
+      <c r="A69" s="1" t="str">
+        <f t="shared" ref="A69:A74" si="1">IF(B69&lt;&gt;"","•","")</f>
+        <v/>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
@@ -2462,41 +2437,30 @@
       <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="18">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>170</v>
-      </c>
+      <c r="A71" s="1"/>
       <c r="C71" s="3"/>
       <c r="I71" s="43"/>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
-        <v>171</v>
+      <c r="A72" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C72" s="3"/>
       <c r="I72" s="43"/>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>172</v>
+      <c r="A73" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C73" s="3"/>
       <c r="I73" s="43"/>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
-        <v>173</v>
+      <c r="A74" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="C74" s="3"/>
       <c r="I74" s="43"/>
@@ -2520,7 +2484,7 @@
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
-        <f t="shared" ref="A77:A81" si="1">IF(B77&lt;&gt;"","•","")</f>
+        <f t="shared" ref="A77:A81" si="2">IF(B77&lt;&gt;"","•","")</f>
         <v/>
       </c>
       <c r="C77" s="20"/>
@@ -2533,7 +2497,7 @@
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C78" s="20"/>
@@ -2546,7 +2510,7 @@
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C79" s="20"/>
@@ -2569,7 +2533,7 @@
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C81" s="20"/>
@@ -2605,7 +2569,7 @@
         <v>2.4</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
@@ -2620,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C85" s="20"/>
       <c r="D85" s="20"/>
@@ -2635,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
@@ -2650,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C87" s="20"/>
       <c r="D87" s="20"/>
@@ -2665,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C88" s="20"/>
       <c r="D88" s="20"/>
@@ -2680,7 +2644,7 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
@@ -2695,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C90" s="20"/>
       <c r="D90" s="20"/>
@@ -2706,12 +2670,7 @@
       <c r="I90" s="20"/>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
-        <v>165</v>
-      </c>
+      <c r="A91" s="1"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
@@ -2721,7 +2680,12 @@
       <c r="I91" s="20"/>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="C92" s="20"/>
       <c r="D92" s="20"/>
       <c r="E92" s="20"/>
@@ -2731,11 +2695,11 @@
       <c r="I92" s="20"/>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>181</v>
+      <c r="A93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>175</v>
       </c>
       <c r="C93" s="20"/>
       <c r="D93" s="20"/>
@@ -2750,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C94" s="20"/>
       <c r="D94" s="20"/>
@@ -2765,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C95" s="20"/>
       <c r="D95" s="20"/>
@@ -2780,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
@@ -2795,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C97" s="20"/>
       <c r="D97" s="20"/>
@@ -2806,12 +2770,7 @@
       <c r="I97" s="20"/>
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
-        <v>186</v>
-      </c>
+      <c r="A98" s="1"/>
       <c r="C98" s="20"/>
       <c r="D98" s="20"/>
       <c r="E98" s="20"/>
@@ -2821,7 +2780,12 @@
       <c r="I98" s="20"/>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="A99" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="C99" s="20"/>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
@@ -2831,11 +2795,11 @@
       <c r="I99" s="20"/>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18">
-        <v>2.6</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>187</v>
+      <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>181</v>
       </c>
       <c r="C100" s="20"/>
       <c r="D100" s="20"/>
@@ -2850,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -2865,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
@@ -2876,12 +2840,7 @@
       <c r="I102" s="20"/>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" t="s">
-        <v>190</v>
-      </c>
+      <c r="A103" s="1"/>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
@@ -2891,7 +2850,12 @@
       <c r="I103" s="20"/>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
+      <c r="A104" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
@@ -2901,11 +2865,11 @@
       <c r="I104" s="20"/>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="18">
-        <v>2.7</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>191</v>
+      <c r="A105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>185</v>
       </c>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
@@ -2920,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -2935,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C107" s="20"/>
       <c r="D107" s="20"/>
@@ -2950,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C108" s="20"/>
       <c r="D108" s="20"/>
@@ -2965,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C109" s="20"/>
       <c r="D109" s="20"/>
@@ -2980,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C110" s="20"/>
       <c r="D110" s="20"/>
@@ -2995,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C111" s="20"/>
       <c r="D111" s="20"/>
@@ -3020,7 +2984,7 @@
         <v>2.8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C113" s="20"/>
       <c r="D113" s="20"/>
@@ -3035,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -3050,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -3061,12 +3025,7 @@
       <c r="I115" s="20"/>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B116" t="s">
-        <v>200</v>
-      </c>
+      <c r="A116" s="1"/>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
       <c r="E116" s="20"/>
@@ -3076,7 +3035,12 @@
       <c r="I116" s="20"/>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
+      <c r="A117" s="18">
+        <v>2.9</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
@@ -3086,11 +3050,11 @@
       <c r="I117" s="20"/>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="18">
-        <v>2.9</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>201</v>
+      <c r="A118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>195</v>
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -3105,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C119" s="20"/>
       <c r="D119" s="20"/>
@@ -3120,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C120" s="20"/>
       <c r="D120" s="20"/>
@@ -3131,12 +3095,7 @@
       <c r="I120" s="20"/>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B121" t="s">
-        <v>190</v>
-      </c>
+      <c r="A121" s="1"/>
       <c r="C121" s="20"/>
       <c r="D121" s="20"/>
       <c r="E121" s="20"/>
@@ -3452,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C148" s="7"/>
       <c r="D148" s="9"/>
@@ -3465,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="23"/>
@@ -3478,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="23"/>
@@ -3492,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C151" s="12"/>
       <c r="D151" s="7"/>
@@ -3505,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
@@ -3518,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
@@ -3532,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
@@ -3545,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Q155" s="10"/>
     </row>
@@ -3554,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C156"/>
       <c r="D156"/>
@@ -3567,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C157"/>
       <c r="D157"/>
@@ -3916,7 +3875,7 @@
     <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="63" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C182" s="64"/>
       <c r="D182" s="64"/>
@@ -3933,7 +3892,7 @@
     <row r="183" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="63" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C183" s="64"/>
       <c r="D183" s="64"/>
@@ -3950,7 +3909,7 @@
     <row r="184" spans="1:9" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="63" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C184" s="64"/>
       <c r="D184" s="64"/>
@@ -4237,7 +4196,7 @@
       </c>
       <c r="F214" s="56">
         <f ca="1">TODAY()</f>
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="G214" s="56"/>
     </row>
